--- a/coin/coin.xlsx
+++ b/coin/coin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaiTruong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaiTruong\Desktop\works\coin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>BTC</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>LY3yALQ3mqLFwj2wsKTTxkGtkyj8hFtdCv</t>
+  </si>
+  <si>
+    <t>XEM</t>
+  </si>
+  <si>
+    <t>18/1/2018</t>
+  </si>
+  <si>
+    <t>NXS</t>
   </si>
 </sst>
 </file>
@@ -173,7 +182,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -246,12 +255,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -276,7 +285,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -284,6 +293,13 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -304,21 +320,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -882,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1026,28 +1028,28 @@
         <v>1E-4</v>
       </c>
       <c r="F4" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G19" si="0">F4*E4</f>
-        <v>0.02</v>
+        <f t="shared" ref="G4:G20" si="0">F4*E4</f>
+        <v>0.01</v>
       </c>
       <c r="H4" s="7">
         <v>1.1E-4</v>
       </c>
       <c r="I4" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J19" si="1">I4*H4</f>
-        <v>2.2000000000000002E-2</v>
+        <f t="shared" ref="J4:J20" si="1">I4*H4</f>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="K4" s="10">
-        <f t="shared" ref="K4:K19" si="2">H4-E4</f>
+        <f t="shared" ref="K4:K20" si="2">H4-E4</f>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L5" si="3">K4/E4</f>
+        <f t="shared" ref="L4:L6" si="3">K4/E4</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -1059,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
@@ -1068,74 +1070,125 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>5.5999999999999999E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F5" s="7">
-        <v>113.95760625</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>6.3816259499999998E-3</v>
+        <f t="shared" ref="G5" si="4">F5*E5</f>
+        <v>0.01</v>
       </c>
       <c r="H5" s="7">
-        <v>6.05E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="I5" s="7">
-        <v>113.95760625</v>
+        <v>100</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="1"/>
-        <v>6.894435178125E-3</v>
+        <f t="shared" ref="J5" si="5">I5*H5</f>
+        <v>0.01</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" si="2"/>
-        <v>4.500000000000001E-6</v>
+        <f t="shared" ref="K5" si="6">H5-E5</f>
+        <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="3"/>
-        <v>8.0357142857142877E-2</v>
+        <f t="shared" ref="L5" si="7">K5/E5</f>
+        <v>0</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>113.95760625</v>
+      </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.3816259499999998E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5.7500000000000002E-5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>113.95760625</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5525623593749999E-3</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="e">
-        <f t="shared" ref="L4:L19" si="4">K6/E6</f>
-        <v>#DIV/0!</v>
+        <v>1.5000000000000026E-6</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
+        <v>2.6785714285714333E-2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8.6000000000000003E-5</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H7" s="7">
+        <v>9.5000000000000005E-5</v>
+      </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.0000000000000019E-6</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L20" si="8">K7/E7</f>
+        <v>0.10465116279069769</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1149,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1167,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1185,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1203,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1221,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1239,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1257,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1275,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1293,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1311,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1329,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1347,12 +1400,27 @@
         <v>0</v>
       </c>
       <c r="L19" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="8"/>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L21" s="8"/>
@@ -1417,15 +1485,29 @@
     <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="8"/>
     </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L3:L19">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="L3:L4 L6:L20">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1439,7 +1521,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/coin/coin.xlsx
+++ b/coin/coin.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaiTruong\Desktop\works\coin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6510" activeTab="1"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Remitano" sheetId="5" r:id="rId3"/>
     <sheet name="Wallets" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>BTC</t>
   </si>
@@ -56,18 +51,12 @@
     <t>16HykLF5GWtxgyR6e4vXttY3QCpPzuigGN</t>
   </si>
   <si>
-    <t>MYST</t>
-  </si>
-  <si>
     <t>15/1/2018</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Coin-base</t>
-  </si>
-  <si>
     <t>Buy</t>
   </si>
   <si>
@@ -95,18 +84,12 @@
     <t>16/1/2018</t>
   </si>
   <si>
-    <t>ADA</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Finished</t>
   </si>
   <si>
-    <t>Win</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -173,7 +156,34 @@
     <t>18/1/2018</t>
   </si>
   <si>
-    <t>NXS</t>
+    <t>BTC-PAY</t>
+  </si>
+  <si>
+    <t>19/1/2018</t>
+  </si>
+  <si>
+    <t>BTC-MYST</t>
+  </si>
+  <si>
+    <t>BTC-ADA</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Binance</t>
+  </si>
+  <si>
+    <t>Liqui</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>BTC-TRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy </t>
   </si>
 </sst>
 </file>
@@ -260,28 +270,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -592,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,630 +873,636 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="7" customWidth="1"/>
-    <col min="8" max="10" width="13.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="4" max="4" width="12" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="7" customWidth="1"/>
+    <col min="7" max="9" width="13.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.06E-4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>230.55424528</v>
+      </c>
+      <c r="F3" s="7">
+        <f>E3*D3</f>
+        <v>2.4438749999680001E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.15E-4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>230.55424528</v>
+      </c>
+      <c r="I3" s="7">
+        <f>H3*G3</f>
+        <v>2.6513738207200002E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <f>G3-D3</f>
+        <v>9.0000000000000019E-6</v>
+      </c>
+      <c r="K3" s="8">
+        <f>J3/D3</f>
+        <v>8.4905660377358513E-2</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.06E-4</v>
-      </c>
-      <c r="F3" s="7">
-        <v>230.55424528</v>
-      </c>
-      <c r="G3" s="7">
-        <f>F3*E3</f>
-        <v>2.4438749999680001E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1.15E-4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>230.55424528</v>
-      </c>
-      <c r="J3" s="7">
-        <f>I3*H3</f>
-        <v>2.6513738207200002E-2</v>
-      </c>
-      <c r="K3" s="10">
-        <f>H3-E3</f>
-        <v>9.0000000000000019E-6</v>
-      </c>
-      <c r="L3" s="8">
-        <f>K3/E3</f>
-        <v>8.4905660377358513E-2</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="D4" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F19" si="0">E4*D4</f>
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.1E-4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>100</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I19" si="1">H4*G4</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J19" si="2">G4-D4</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K6" si="3">J4/D4</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D5" s="7">
         <v>1E-4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="E5" s="7">
         <v>100</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G20" si="0">F4*E4</f>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5" si="4">E5*D5</f>
         <v>0.01</v>
       </c>
-      <c r="H4" s="7">
-        <v>1.1E-4</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="G5" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="H5" s="7">
         <v>100</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" ref="J4:J20" si="1">I4*H4</f>
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="K4" s="10">
-        <f t="shared" ref="K4:K20" si="2">H4-E4</f>
-        <v>9.9999999999999991E-6</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" ref="L4:L6" si="3">K4/E4</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="I5" s="7">
+        <f t="shared" ref="I5" si="5">H5*G5</f>
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" ref="J5" si="6">G5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5" si="7">J5/D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="F5" s="7">
-        <v>100</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5" si="4">F5*E5</f>
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>100</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" ref="J5" si="5">I5*H5</f>
-        <v>0.01</v>
-      </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5" si="6">H5-E5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" ref="L5" si="7">K5/E5</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>0</v>
+      <c r="D6" s="7">
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="E6" s="7">
-        <v>5.5999999999999999E-5</v>
+        <v>113.95760625</v>
       </c>
       <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3816259499999998E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5.7500000000000002E-5</v>
+      </c>
+      <c r="H6" s="7">
         <v>113.95760625</v>
       </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>6.3816259499999998E-3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5.7500000000000002E-5</v>
-      </c>
       <c r="I6" s="7">
-        <v>113.95760625</v>
-      </c>
-      <c r="J6" s="7">
         <f t="shared" si="1"/>
         <v>6.5525623593749999E-3</v>
       </c>
-      <c r="K6" s="10">
+      <c r="J6" s="10">
         <f t="shared" si="2"/>
         <v>1.5000000000000026E-6</v>
       </c>
-      <c r="L6" s="8">
+      <c r="K6" s="8">
         <f t="shared" si="3"/>
         <v>2.6785714285714333E-2</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
         <v>8.6000000000000003E-5</v>
       </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000019E-6</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" ref="L7:L20" si="8">K7/E7</f>
-        <v>0.10465116279069769</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="2"/>
+        <v>-8.6000000000000003E-5</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7:K19" si="8">J7/D7</f>
+        <v>-1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="8" t="e">
+        <v>2.3600000000000001E-5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>100</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000016E-6</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="8"/>
+        <v>7.2727272727272807E-2</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>95.880726839999994</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>6.5198894251199992E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>95.880726839999994</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>7.4786966935199992E-3</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="8"/>
+        <v>0.14705882352941174</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="e">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="e">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="8" t="e">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="8" t="e">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="8" t="e">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="8" t="e">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="8" t="e">
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="8" t="e">
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="8" t="e">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L42" s="8"/>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L3:L4 L6:L20">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="K3:K4 K6:K19">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1542,37 +1537,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="H1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1580,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -1599,7 +1594,7 @@
         <v>23740</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1609,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,25 +1620,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1654,21 +1652,29 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/coin/coin.xlsx
+++ b/coin/coin.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaiTruong\Desktop\works\coin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6510" activeTab="1"/>
   </bookViews>
@@ -10,9 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Bitrrex" sheetId="3" r:id="rId2"/>
     <sheet name="Remitano" sheetId="5" r:id="rId3"/>
-    <sheet name="Wallets" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Wallets" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>BTC</t>
   </si>
@@ -150,9 +156,6 @@
     <t>LY3yALQ3mqLFwj2wsKTTxkGtkyj8hFtdCv</t>
   </si>
   <si>
-    <t>XEM</t>
-  </si>
-  <si>
     <t>18/1/2018</t>
   </si>
   <si>
@@ -183,14 +186,24 @@
     <t>BTC-TRST</t>
   </si>
   <si>
-    <t xml:space="preserve">Buy </t>
+    <t>BTC-XEM</t>
+  </si>
+  <si>
+    <t>BTC-NXC</t>
+  </si>
+  <si>
+    <t>BTC-XWC</t>
+  </si>
+  <si>
+    <t>20/1/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000"/>
   </numFmts>
@@ -248,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,6 +279,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,7 +608,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,10 +889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -884,16 +900,19 @@
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="7" customWidth="1"/>
     <col min="7" max="9" width="13.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" style="10" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="13" width="9.140625" style="7"/>
+    <col min="14" max="14" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -931,7 +950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -948,13 +967,25 @@
         <v>0</v>
       </c>
       <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="7">
+        <f>SUM(M3:M39)</f>
+        <v>8.5742284806010031E-3</v>
+      </c>
+      <c r="N2" s="7">
+        <f>D2+M2</f>
+        <v>3.3074228480601001E-2</v>
+      </c>
+      <c r="O2" s="13">
+        <f>N2*Remitano!$D$2</f>
+        <v>11841721.269288158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -973,6 +1004,7 @@
         <v>1.15E-4</v>
       </c>
       <c r="H3" s="7">
+        <f>E3</f>
         <v>230.55424528</v>
       </c>
       <c r="I3" s="7">
@@ -990,13 +1022,21 @@
       <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="7">
+        <f>J3*H3</f>
+        <v>2.0749882075200006E-3</v>
+      </c>
+      <c r="N3" s="15">
+        <f>M3*Remitano!$D$2</f>
+        <v>742917.76767895173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>19</v>
@@ -1015,30 +1055,39 @@
         <v>1.1E-4</v>
       </c>
       <c r="H4" s="7">
+        <f t="shared" ref="H4:H14" si="1">E4</f>
         <v>100</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I19" si="1">H4*G4</f>
+        <f t="shared" ref="I4:I19" si="2">H4*G4</f>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" ref="J4:J19" si="2">G4-D4</f>
+        <f t="shared" ref="J4:J19" si="3">G4-D4</f>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K6" si="3">J4/D4</f>
+        <f t="shared" ref="K4:K6" si="4">J4/D4</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M14" si="5">J4*H4</f>
+        <v>1E-3</v>
+      </c>
+      <c r="N4" s="15">
+        <f>M4*Remitano!$D$2</f>
+        <v>358034.69387755101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>19</v>
@@ -1050,37 +1099,46 @@
         <v>100</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5" si="4">E5*D5</f>
+        <f t="shared" ref="F5" si="6">E5*D5</f>
         <v>0.01</v>
       </c>
       <c r="G5" s="7">
         <v>1E-4</v>
       </c>
       <c r="H5" s="7">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5" si="5">H5*G5</f>
+        <f t="shared" ref="I5" si="7">H5*G5</f>
         <v>0.01</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" ref="J5" si="6">G5-D5</f>
+        <f t="shared" ref="J5" si="8">G5-D5</f>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5" si="7">J5/D5</f>
+        <f t="shared" ref="K5" si="9">J5/D5</f>
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <f>M5*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
@@ -1099,33 +1157,42 @@
         <v>5.7500000000000002E-5</v>
       </c>
       <c r="H6" s="7">
+        <f t="shared" si="1"/>
         <v>113.95760625</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5525623593749999E-3</v>
       </c>
       <c r="J6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5000000000000026E-6</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6785714285714333E-2</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="7">
+        <f t="shared" si="5"/>
+        <v>1.7093640937500029E-4</v>
+      </c>
+      <c r="N6" s="15">
+        <f>M6*Remitano!$D$2</f>
+        <v>61201.165003105969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="7">
         <v>8.6000000000000003E-5</v>
@@ -1135,75 +1202,92 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" si="2"/>
-        <v>-8.6000000000000003E-5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7:K19" si="8">J7/D7</f>
-        <v>-1</v>
+        <f t="shared" ref="K7:K19" si="10">J7/D7</f>
+        <v>0</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <f>M7*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="7">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="E8" s="7">
-        <v>100</v>
-      </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>2.2000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>2.3600000000000001E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3600000000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J8" s="10">
-        <f t="shared" si="2"/>
-        <v>1.6000000000000016E-6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="8"/>
-        <v>7.2727272727272807E-2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <f>M8*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7">
         <v>6.7999999999999999E-5</v>
@@ -1216,244 +1300,425 @@
         <v>6.5198894251199992E-3</v>
       </c>
       <c r="G9" s="7">
-        <v>7.7999999999999999E-5</v>
+        <v>7.3990000000000001E-5</v>
       </c>
       <c r="H9" s="7">
+        <f t="shared" si="1"/>
         <v>95.880726839999994</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>7.4786966935199992E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0942149788915995E-3</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999991E-6</v>
+        <f t="shared" si="3"/>
+        <v>5.9900000000000019E-6</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="8"/>
-        <v>0.14705882352941174</v>
+        <f t="shared" si="10"/>
+        <v>8.8088235294117676E-2</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="5"/>
+        <v>5.7432555377160018E-4</v>
+      </c>
+      <c r="N9" s="15">
+        <f>M9*Remitano!$D$2</f>
+        <v>205628.47383066983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8.9800000000000001E-5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>100</v>
+      </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.0327000000000001E-4</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0327000000000001E-2</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.3470000000000005E-5</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="5"/>
+        <v>1.3470000000000005E-3</v>
+      </c>
+      <c r="N10" s="15">
+        <f>M10*Remitano!$D$2</f>
+        <v>482272.73265306139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>23.31973636</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <f>M11*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.573E-5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>528.92358233000004</v>
+      </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3199679500509001E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2.1149999999999999E-5</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>528.92358233000004</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.1186733766279501E-2</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>5.4199999999999989E-6</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="10"/>
+        <v>0.34456452638270813</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="5"/>
+        <v>2.8667658162285998E-3</v>
+      </c>
+      <c r="N12" s="15">
+        <f>M12*Remitano!$D$2</f>
+        <v>1026401.6214320344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5.2450000000000001E-5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>17.118393229999999</v>
+      </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.9785972491349998E-4</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6.2550000000000003E-5</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>17.118393229999999</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0707554965364999E-3</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.0100000000000002E-5</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="10"/>
+        <v>0.19256434699714017</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="5"/>
+        <v>1.7289577162300001E-4</v>
+      </c>
+      <c r="N13" s="15">
+        <f>M13*Remitano!$D$2</f>
+        <v>61902.68466576378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>42.317594710000002</v>
+      </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2005149249199997E-3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>6.0680000000000002E-5</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>42.317594710000002</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5678316470028003E-3</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.680000000000005E-6</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="10"/>
+        <v>0.16692307692307704</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="5"/>
+        <v>3.673167220828002E-4</v>
+      </c>
+      <c r="N14" s="15">
+        <f>M14*Remitano!$D$2</f>
+        <v>131512.13014702086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="15">
+        <f>M15*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="15">
+        <f>M16*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="15">
+        <f>M17*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N18" s="15">
+        <f>M18*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N19" s="15">
+        <f>M19*Remitano!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
@@ -1513,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1524,18 +1789,22 @@
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="10" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="7" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="12" width="8.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="8.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -1570,7 +1839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1580,22 +1849,25 @@
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <f>H2/F2</f>
         <v>358034693.87755102</v>
       </c>
       <c r="F2" s="12">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="14">
         <v>8771850</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="13">
         <v>23740</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,6 +1875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1621,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1666,7 +1952,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1674,7 +1960,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/coin/coin.xlsx
+++ b/coin/coin.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>BTC</t>
   </si>
@@ -57,9 +57,6 @@
     <t>16HykLF5GWtxgyR6e4vXttY3QCpPzuigGN</t>
   </si>
   <si>
-    <t>15/1/2018</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>16/1/2018</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -156,15 +150,9 @@
     <t>LY3yALQ3mqLFwj2wsKTTxkGtkyj8hFtdCv</t>
   </si>
   <si>
-    <t>18/1/2018</t>
-  </si>
-  <si>
     <t>BTC-PAY</t>
   </si>
   <si>
-    <t>19/1/2018</t>
-  </si>
-  <si>
     <t>BTC-MYST</t>
   </si>
   <si>
@@ -195,17 +183,33 @@
     <t>BTC-XWC</t>
   </si>
   <si>
-    <t>20/1/2018</t>
+    <t>BTC-XVG</t>
+  </si>
+  <si>
+    <t>BTC-XRP</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Current sell coin</t>
+  </si>
+  <si>
+    <t>BTC-NBT</t>
+  </si>
+  <si>
+    <t>BTC-VOX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -235,7 +239,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +249,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,7 +297,22 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,116 +922,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="7" customWidth="1"/>
-    <col min="7" max="9" width="13.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="21" customWidth="1"/>
+    <col min="8" max="9" width="13.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="7"/>
-    <col min="14" max="14" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>20</v>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="C2" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D2" s="20">
+        <f>SUM(Remitano!F2:F21)</f>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="G2" s="21">
         <v>0</v>
       </c>
       <c r="K2" s="8"/>
       <c r="M2" s="7">
         <f>SUM(M3:M39)</f>
-        <v>8.5742284806010031E-3</v>
-      </c>
-      <c r="N2" s="7">
+        <v>9.7978280850466969E-3</v>
+      </c>
+      <c r="N2" s="23">
         <f>D2+M2</f>
-        <v>3.3074228480601001E-2</v>
+        <v>5.1797828085046696E-2</v>
       </c>
       <c r="O2" s="13">
         <f>N2*Remitano!$D$2</f>
-        <v>11841721.269288158</v>
+        <v>18545419.521951709</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
+        <v>41</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D3" s="20">
         <v>1.06E-4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="22">
         <v>230.55424528</v>
       </c>
       <c r="F3" s="7">
         <f>E3*D3</f>
         <v>2.4438749999680001E-2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="21">
         <v>1.15E-4</v>
       </c>
       <c r="H3" s="7">
@@ -1020,50 +1061,53 @@
         <v>8.4905660377358513E-2</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M3" s="7">
         <f>J3*H3</f>
         <v>2.0749882075200006E-3</v>
       </c>
-      <c r="N3" s="15">
-        <f>M3*Remitano!$D$2</f>
+      <c r="N3" s="24">
+        <f>M3*O3</f>
         <v>742917.76767895173</v>
+      </c>
+      <c r="O3" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7">
+        <v>41</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43116</v>
+      </c>
+      <c r="D4" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="22">
         <v>100</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F19" si="0">E4*D4</f>
+        <f t="shared" ref="F4:F27" si="0">E4*D4</f>
         <v>0.01</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="21">
         <v>1.1E-4</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H14" si="1">E4</f>
+        <f t="shared" ref="H4:H12" si="1">E4</f>
         <v>100</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I19" si="2">H4*G4</f>
+        <f t="shared" ref="I4:I27" si="2">H4*G4</f>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" ref="J4:J19" si="3">G4-D4</f>
+        <f t="shared" ref="J4:J27" si="3">G4-D4</f>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="K4" s="8">
@@ -1071,38 +1115,41 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" ref="M4:M14" si="5">J4*H4</f>
+        <f t="shared" ref="M4:M27" si="5">J4*H4</f>
         <v>1E-3</v>
       </c>
-      <c r="N4" s="15">
-        <f>M4*Remitano!$D$2</f>
+      <c r="N4" s="24">
+        <f t="shared" ref="N4:N6" si="6">M4*O4</f>
         <v>358034.69387755101</v>
+      </c>
+      <c r="O4" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43116</v>
+      </c>
+      <c r="D5" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="22">
         <v>100</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5" si="6">E5*D5</f>
+        <f t="shared" ref="F5" si="7">E5*D5</f>
         <v>0.01</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="21">
         <v>1E-4</v>
       </c>
       <c r="H5" s="7">
@@ -1110,50 +1157,53 @@
         <v>100</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5" si="7">H5*G5</f>
+        <f t="shared" ref="I5" si="8">H5*G5</f>
         <v>0.01</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" ref="J5" si="8">G5-D5</f>
+        <f t="shared" ref="J5" si="9">G5-D5</f>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5" si="9">J5/D5</f>
+        <f t="shared" ref="K5" si="10">J5/D5</f>
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="15">
-        <f>M5*Remitano!$D$2</f>
-        <v>0</v>
+      <c r="N5" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7">
+        <v>42</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43116</v>
+      </c>
+      <c r="D6" s="20">
         <v>5.5999999999999999E-5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="22">
         <v>113.95760625</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>6.3816259499999998E-3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="21">
         <v>5.7500000000000002E-5</v>
       </c>
       <c r="H6" s="7">
@@ -1173,35 +1223,38 @@
         <v>2.6785714285714333E-2</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="5"/>
         <v>1.7093640937500029E-4</v>
       </c>
-      <c r="N6" s="15">
-        <f>M6*Remitano!$D$2</f>
+      <c r="N6" s="24">
+        <f t="shared" si="6"/>
         <v>61201.165003105969</v>
+      </c>
+      <c r="O6" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43118</v>
+      </c>
+      <c r="D7" s="20">
         <v>8.6000000000000003E-5</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="21">
         <v>8.6000000000000003E-5</v>
       </c>
       <c r="H7" s="7">
@@ -1217,39 +1270,42 @@
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ref="K7:K19" si="10">J7/D7</f>
+        <f t="shared" ref="K7:K27" si="11">J7/D7</f>
         <v>0</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="15">
-        <f>M7*Remitano!$D$2</f>
-        <v>0</v>
+      <c r="N7" s="24">
+        <f t="shared" ref="N4:N27" si="12">M7*O7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43119</v>
+      </c>
+      <c r="D8" s="20">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="21">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="H8" s="7">
@@ -1268,38 +1324,41 @@
         <v>0</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="15">
-        <f>M8*Remitano!$D$2</f>
-        <v>0</v>
+      <c r="N8" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7">
+        <v>47</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43118</v>
+      </c>
+      <c r="D9" s="20">
         <v>6.7999999999999999E-5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="22">
         <v>95.880726839999994</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>6.5198894251199992E-3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="21">
         <v>7.3990000000000001E-5</v>
       </c>
       <c r="H9" s="7">
@@ -1315,43 +1374,46 @@
         <v>5.9900000000000019E-6</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.8088235294117676E-2</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="5"/>
         <v>5.7432555377160018E-4</v>
       </c>
-      <c r="N9" s="15">
-        <f>M9*Remitano!$D$2</f>
+      <c r="N9" s="24">
+        <f t="shared" si="12"/>
         <v>205628.47383066983</v>
+      </c>
+      <c r="O9" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43119</v>
+      </c>
+      <c r="D10" s="20">
         <v>8.9800000000000001E-5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="22">
         <v>100</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>8.9800000000000001E-3</v>
       </c>
-      <c r="G10" s="7">
-        <v>1.0327000000000001E-4</v>
+      <c r="G10" s="21">
+        <v>1E-4</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
@@ -1359,45 +1421,48 @@
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
-        <v>1.0327000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="3"/>
-        <v>1.3470000000000005E-5</v>
+        <v>1.0200000000000004E-5</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="10"/>
-        <v>0.15000000000000005</v>
+        <f t="shared" si="11"/>
+        <v>0.11358574610244994</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="5"/>
-        <v>1.3470000000000005E-3</v>
-      </c>
-      <c r="N10" s="15">
-        <f>M10*Remitano!$D$2</f>
-        <v>482272.73265306139</v>
+        <v>1.0200000000000005E-3</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" si="12"/>
+        <v>365195.38775510225</v>
+      </c>
+      <c r="O10" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="7">
+        <v>49</v>
+      </c>
+      <c r="C11" s="17">
+        <v>43119</v>
+      </c>
+      <c r="D11" s="20">
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="22">
         <v>23.31973636</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="21">
         <v>3.8000000000000002E-5</v>
       </c>
       <c r="J11" s="10">
@@ -1408,39 +1473,42 @@
         <v>0</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N11" s="15">
-        <f>M11*Remitano!$D$2</f>
-        <v>0</v>
+      <c r="N11" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7">
+        <v>50</v>
+      </c>
+      <c r="C12" s="17">
+        <v>43120</v>
+      </c>
+      <c r="D12" s="20">
         <v>1.573E-5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="22">
         <v>528.92358233000004</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>8.3199679500509001E-3</v>
       </c>
-      <c r="G12" s="7">
-        <v>2.1149999999999999E-5</v>
+      <c r="G12" s="21">
+        <v>1.525E-5</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
@@ -1448,277 +1516,700 @@
       </c>
       <c r="I12" s="7">
         <f t="shared" si="2"/>
-        <v>1.1186733766279501E-2</v>
+        <v>8.0660846305325006E-3</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="3"/>
-        <v>5.4199999999999989E-6</v>
+        <v>-4.8000000000000049E-7</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="10"/>
-        <v>0.34456452638270813</v>
+        <f t="shared" si="11"/>
+        <v>-3.0514939605848727E-2</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="5"/>
-        <v>2.8667658162285998E-3</v>
-      </c>
-      <c r="N12" s="15">
-        <f>M12*Remitano!$D$2</f>
-        <v>1026401.6214320344</v>
+        <v>-2.5388331951840029E-4</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="12"/>
+        <v>-50676.581068059349</v>
+      </c>
+      <c r="O12" s="13">
+        <v>199605792</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="7">
+        <v>42</v>
+      </c>
+      <c r="C13" s="17">
+        <v>43120</v>
+      </c>
+      <c r="D13" s="20">
         <v>5.2450000000000001E-5</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="22">
         <v>17.118393229999999</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>8.9785972491349998E-4</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="21">
         <v>6.2550000000000003E-5</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>17.118393229999999</v>
-      </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
-        <v>1.0707554965364999E-3</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="3"/>
-        <v>1.0100000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="10"/>
-        <v>0.19256434699714017</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="5"/>
-        <v>1.7289577162300001E-4</v>
-      </c>
-      <c r="N13" s="15">
-        <f>M13*Remitano!$D$2</f>
-        <v>61902.68466576378</v>
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7">
+        <v>42</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43120</v>
+      </c>
+      <c r="D14" s="20">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="22">
         <v>42.317594710000002</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>2.2005149249199997E-3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="21">
         <v>6.0680000000000002E-5</v>
       </c>
-      <c r="H14" s="7">
-        <f t="shared" si="1"/>
-        <v>42.317594710000002</v>
-      </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>2.5678316470028003E-3</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="3"/>
-        <v>8.680000000000005E-6</v>
+        <v>0</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="10"/>
-        <v>0.16692307692307704</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="5"/>
-        <v>3.673167220828002E-4</v>
-      </c>
-      <c r="N14" s="15">
-        <f>M14*Remitano!$D$2</f>
-        <v>131512.13014702086</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="17">
+        <v>43124</v>
+      </c>
+      <c r="D15" s="20">
+        <f>(D13+D14)/2</f>
+        <v>5.2224999999999995E-5</v>
+      </c>
+      <c r="E15" s="22">
+        <v>59.435987939999997</v>
+      </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1040444701664997E-3</v>
+      </c>
+      <c r="G15" s="21">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>59.435987939999997</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.3284153246399997E-3</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="15">
-        <f>M15*Remitano!$D$2</f>
-        <v>0</v>
+        <f>G15-D15</f>
+        <v>3.7750000000000037E-6</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="11"/>
+        <v>7.2283389181426599E-2</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="5"/>
+        <v>2.243708544735002E-4</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="12"/>
+        <v>80332.550196464188</v>
+      </c>
+      <c r="O15" s="13">
+        <v>358034693.87755102</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17">
+        <v>43125</v>
+      </c>
+      <c r="D16" s="20">
+        <v>8.3499999999999997E-6</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1241.98784731</v>
+      </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.03705985250385E-2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>8.3499999999999997E-6</v>
+      </c>
+      <c r="H16" s="7">
+        <f>E16</f>
+        <v>1241.98784731</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.03705985250385E-2</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="15">
-        <f>M16*Remitano!$D$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="K16" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>358034693.87755102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43128</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1.0555E-4</v>
+      </c>
+      <c r="E17" s="22">
+        <v>94.269467550000002</v>
+      </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9501422999025008E-3</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1.06E-4</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H27" si="13">E17</f>
+        <v>94.269467550000002</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9925635603000003E-3</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="15">
-        <f>M17*Remitano!$D$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
+        <v>4.4999999999999739E-7</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="11"/>
+        <v>4.2633822832780421E-3</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="5"/>
+        <v>4.2421260397499752E-5</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="12"/>
+        <v>7982.9172423309547</v>
+      </c>
+      <c r="O17" s="13">
+        <v>188181991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="17">
+        <v>43138</v>
+      </c>
+      <c r="D18" s="20">
+        <v>9.6150000000000006E-5</v>
+      </c>
+      <c r="E18" s="22">
+        <v>181.55298830000001</v>
+      </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7456319825045002E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1.0545E-4</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="13"/>
+        <v>181.55298830000001</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9144762616235E-2</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="15">
-        <f>M18*Remitano!$D$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
+        <v>9.2999999999999957E-6</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="11"/>
+        <v>9.6723868954758138E-2</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="5"/>
+        <v>1.6884427911899992E-3</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="12"/>
+        <v>316301.85372387915</v>
+      </c>
+      <c r="O18" s="13">
+        <v>187333474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="17">
+        <v>43141</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1.117E-4</v>
+      </c>
+      <c r="E19" s="22">
+        <v>259.63585474000001</v>
+      </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9001324974458002E-2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1.238E-4</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="13"/>
+        <v>259.63585474000001</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.2142918816811999E-2</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="8" t="e">
-        <f t="shared" si="10"/>
+        <v>1.2099999999999996E-5</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="11"/>
+        <v>0.10832587287376898</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="5"/>
+        <v>3.1415938423539993E-3</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="12"/>
+        <v>580489.54788513063</v>
+      </c>
+      <c r="O19" s="13">
+        <v>184775492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43141</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1.9449999999999998E-5</v>
+      </c>
+      <c r="E20" s="22">
+        <v>412.64754370000003</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>8.0259947249649993E-3</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1.9449999999999998E-5</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="13"/>
+        <v>412.64754370000003</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="2"/>
+        <v>8.0259947249649993E-3</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>184775492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="17">
+        <v>43143</v>
+      </c>
+      <c r="D21" s="20">
+        <v>4.1850000000000001E-5</v>
+      </c>
+      <c r="E21" s="22">
+        <v>764.21656988999996</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1982463449896498E-2</v>
+      </c>
+      <c r="G21" s="21">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="13"/>
+        <v>764.21656988999996</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="2"/>
+        <v>3.2097095935379995E-2</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999687E-7</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="11"/>
+        <v>3.5842293906809286E-3</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="5"/>
+        <v>1.146324854834976E-4</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="12"/>
+        <v>21181.273904396126</v>
+      </c>
+      <c r="O21" s="13">
+        <v>184775492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="15">
-        <f>M19*Remitano!$D$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
@@ -1749,7 +2240,7 @@
       <c r="K41" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K4 K6:K19">
+  <conditionalFormatting sqref="K3:K4 K6:K27">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -1778,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1806,45 +2297,45 @@
   <sheetData>
     <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
+      <c r="B2" s="16">
+        <v>43115</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -1853,7 +2344,8 @@
         <f>H2/F2</f>
         <v>358034693.87755102</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="7">
+        <f>0.025-0.0005</f>
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="H2" s="14">
@@ -1863,11 +2355,48 @@
         <v>23740</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M7" s="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>43136</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3" si="0">H3/F3</f>
+        <v>178297714.2857143</v>
+      </c>
+      <c r="F3" s="7">
+        <f>0.018-0.0005</f>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="H3" s="15">
+        <v>3120210</v>
+      </c>
+      <c r="I3" s="13">
+        <v>23740</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,10 +2408,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,27 +2439,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1938,29 +2470,29 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/coin/coin.xlsx
+++ b/coin/coin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaiTruong\Desktop\works\coin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\coin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6C3587EE-618C-416A-A316-32370029D0BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
     <sheet name="Wallets" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>BTC</t>
   </si>
@@ -199,17 +200,20 @@
   </si>
   <si>
     <t>BTC-VOX</t>
+  </si>
+  <si>
+    <t>BTC-USDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -299,8 +303,8 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -635,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -919,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -940,7 +944,7 @@
     <col min="11" max="11" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="23" customWidth="1"/>
     <col min="15" max="15" width="19" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
@@ -1010,15 +1014,15 @@
       <c r="K2" s="8"/>
       <c r="M2" s="7">
         <f>SUM(M3:M39)</f>
-        <v>9.7978280850466969E-3</v>
+        <v>1.3207378858947901E-2</v>
       </c>
       <c r="N2" s="23">
         <f>D2+M2</f>
-        <v>5.1797828085046696E-2</v>
+        <v>5.52073788589479E-2</v>
       </c>
       <c r="O2" s="13">
         <f>N2*Remitano!$D$2</f>
-        <v>18545419.521951709</v>
+        <v>19766156.989545394</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1281,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="24">
-        <f t="shared" ref="N4:N27" si="12">M7*O7</f>
+        <f t="shared" ref="N7:N27" si="12">M7*O7</f>
         <v>0</v>
       </c>
       <c r="O7" s="13">
@@ -1708,7 +1712,7 @@
         <v>1.03705985250385E-2</v>
       </c>
       <c r="G16" s="20">
-        <v>8.3499999999999997E-6</v>
+        <v>6.0499999999999997E-6</v>
       </c>
       <c r="H16" s="7">
         <f>E16</f>
@@ -1716,26 +1720,26 @@
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>1.03705985250385E-2</v>
+        <v>7.5140264762255E-3</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2.3E-6</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.27544910179640719</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2.856572048813E-3</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1022751.8990359312</v>
       </c>
       <c r="O16" s="13">
         <v>358034693.87755102</v>
@@ -1924,7 +1928,7 @@
         <v>8.0259947249649993E-3</v>
       </c>
       <c r="G20" s="20">
-        <v>1.9449999999999998E-5</v>
+        <v>1.2279999999999999E-5</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="13"/>
@@ -1932,26 +1936,26 @@
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>8.0259947249649993E-3</v>
+        <v>5.0673118366359998E-3</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.1699999999999991E-6</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.36863753213367606</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2.958682888329E-3</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-546692.08636297204</v>
       </c>
       <c r="O20" s="13">
         <v>184775492</v>
@@ -1978,7 +1982,7 @@
         <v>3.1982463449896498E-2</v>
       </c>
       <c r="G21" s="21">
-        <v>4.1999999999999998E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="13"/>
@@ -1986,82 +1990,126 @@
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>3.2097095935379995E-2</v>
+        <v>3.8210828494499999E-2</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="3"/>
-        <v>1.4999999999999687E-7</v>
+        <v>8.1500000000000016E-6</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" si="11"/>
-        <v>3.5842293906809286E-3</v>
+        <v>0.19474313022700124</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="5"/>
-        <v>1.146324854834976E-4</v>
+        <v>6.228365044603501E-3</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="12"/>
-        <v>21181.273904396126</v>
+        <v>1150849.2154722139</v>
       </c>
       <c r="O21" s="13">
         <v>184775492</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="17">
+        <v>43186</v>
+      </c>
+      <c r="D22" s="20">
+        <v>7.2290000000000001E-5</v>
+      </c>
+      <c r="E22" s="22">
+        <v>103.42663404</v>
+      </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.4767113747516E-3</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1.0237E-4</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>103.42663404</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0587784526674799E-2</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="8" t="e">
+        <v>3.0079999999999997E-5</v>
+      </c>
+      <c r="K22" s="8">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.41610181214552494</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.1110731519231995E-3</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="13"/>
+        <v>574850.07229459996</v>
+      </c>
+      <c r="O22" s="13">
+        <v>184775492</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="17">
+        <v>43210</v>
+      </c>
+      <c r="D23" s="20">
+        <v>8400</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1.056137E-2</v>
+      </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88.715508</v>
+      </c>
+      <c r="G23" s="21">
+        <v>8400</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.056137E-2</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.715508</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="8" t="e">
+      <c r="K23" s="8">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="5"/>
@@ -2071,7 +2119,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O23" s="13"/>
+      <c r="O23" s="13">
+        <v>184775492</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F24" s="7">
@@ -2268,7 +2318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2404,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/coin/coin.xlsx
+++ b/coin/coin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\coin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6C3587EE-618C-416A-A316-32370029D0BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD25083A-6F66-48EA-A3E0-FCCB57E58155}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>BTC</t>
   </si>
@@ -199,10 +199,16 @@
     <t>BTC-NBT</t>
   </si>
   <si>
-    <t>BTC-VOX</t>
-  </si>
-  <si>
     <t>BTC-USDT</t>
+  </si>
+  <si>
+    <t>USDT-ADA</t>
+  </si>
+  <si>
+    <t>BTC-RVR</t>
+  </si>
+  <si>
+    <t>USDT-XVG</t>
   </si>
 </sst>
 </file>
@@ -926,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -936,7 +942,7 @@
     <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="17" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="21" customWidth="1"/>
     <col min="8" max="9" width="13.28515625" style="7" customWidth="1"/>
@@ -1014,15 +1020,15 @@
       <c r="K2" s="8"/>
       <c r="M2" s="7">
         <f>SUM(M3:M39)</f>
-        <v>1.3207378858947901E-2</v>
+        <v>19.089338159966253</v>
       </c>
       <c r="N2" s="23">
         <f>D2+M2</f>
-        <v>5.52073788589479E-2</v>
+        <v>19.131338159966255</v>
       </c>
       <c r="O2" s="13">
         <f>N2*Remitano!$D$2</f>
-        <v>19766156.989545394</v>
+        <v>6849682801.5714283</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1912,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" s="17">
         <v>43141</v>
@@ -1982,7 +1988,7 @@
         <v>3.1982463449896498E-2</v>
       </c>
       <c r="G21" s="21">
-        <v>5.0000000000000002E-5</v>
+        <v>4.1850000000000001E-5</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="13"/>
@@ -1990,26 +1996,26 @@
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>3.8210828494499999E-2</v>
+        <v>3.1982463449896498E-2</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="3"/>
-        <v>8.1500000000000016E-6</v>
+        <v>0</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" si="11"/>
-        <v>0.19474313022700124</v>
+        <v>0</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="5"/>
-        <v>6.228365044603501E-3</v>
+        <v>0</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="12"/>
-        <v>1150849.2154722139</v>
+        <v>0</v>
       </c>
       <c r="O21" s="13">
         <v>184775492</v>
@@ -2074,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="17">
         <v>43210</v>
@@ -2109,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="5"/>
@@ -2124,66 +2130,112 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="17">
+        <v>43215</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="E24" s="22">
+        <v>311.36678988</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88.272484930979985</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0.32600000000000001</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>311.36678988</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>101.50557350088</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8" t="e">
+        <v>4.2500000000000038E-2</v>
+      </c>
+      <c r="K24" s="8">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.1499118165784834</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13.233088569900012</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="13"/>
+        <v>304361.03710770025</v>
+      </c>
+      <c r="O24" s="13">
+        <v>23000</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="17">
+        <v>43226</v>
+      </c>
+      <c r="D25" s="20">
+        <v>7.3730000000000004E-2</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1369.85259397</v>
+      </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100.99923175340811</v>
+      </c>
+      <c r="G25" s="21">
+        <v>7.8E-2</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1369.85259397</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>106.84850232966001</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="8" t="e">
+        <v>4.269999999999996E-3</v>
+      </c>
+      <c r="K25" s="8">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>5.791401057914005E-2</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.8492705762518948</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="13"/>
+        <v>134533.22325379358</v>
+      </c>
+      <c r="O25" s="13">
+        <v>23000</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F26" s="7">
@@ -2322,7 +2374,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
